--- a/xlsx/美国革命_intext.xlsx
+++ b/xlsx/美国革命_intext.xlsx
@@ -15,525 +15,522 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="458">
   <si>
     <t>美国革命</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9D%A9%E5%91%BD</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E4%B8%AA%E6%AE%96%E6%B0%91%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>十三个殖民地</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_美国革命</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%8D%B0%E6%88%B0%E7%88%AD</t>
+  </si>
+  <si>
+    <t>法印战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
+  </si>
+  <si>
+    <t>西班牙</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%8D%81%E4%B8%89%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>北美十三州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%B1%E5%B8%9D%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>大英帝国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%A0%85%E5%90%88%E7%9C%BE%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>美利坚合众国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%8D%A8%E7%AB%8B%E6%88%B0%E7%88%AD</t>
+  </si>
+  <si>
+    <t>美国独立战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%88%B6%E5%AE%AA%E4%BC%9A%E8%AE%AE</t>
+  </si>
+  <si>
+    <t>美国制宪会议</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>自由主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%95%9F%E8%92%99%E9%81%8B%E5%8B%95</t>
+  </si>
+  <si>
+    <t>启蒙运动</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E6%94%B9%E9%9D%A9%E9%81%8B%E5%8B%95</t>
+  </si>
+  <si>
+    <t>宗教改革运动</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>共和主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>联邦主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E9%BA%A5%E8%BF%AA%E9%81%9C</t>
+  </si>
+  <si>
+    <t>詹姆斯·麦迪逊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/1812%E5%B9%B4%E6%88%B0%E7%88%AD</t>
+  </si>
+  <si>
+    <t>1812年战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E5%A4%A7%E9%9D%A9%E5%91%BD</t>
+  </si>
+  <si>
+    <t>法国大革命</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E7%BE%8E%E6%B4%B2%E7%8B%AC%E7%AB%8B%E6%88%98%E4%BA%89</t>
+  </si>
+  <si>
+    <t>拉丁美洲独立战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%9A%86%E7%94%9F%E8%80%8C%E5%B9%B3%E7%AD%89</t>
+  </si>
+  <si>
+    <t>人皆生而平等</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E6%AC%8A%E5%88%A9</t>
+  </si>
+  <si>
+    <t>自然权利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%B4%E9%9A%B8%E5%88%B6</t>
+  </si>
+  <si>
+    <t>奴隶制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%8D%E6%97%8F%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>美国种族主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%8D%A8%E7%AB%8B%E5%AE%A3%E8%A8%80</t>
+  </si>
+  <si>
+    <t>美国独立宣言</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>北美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%83%E5%B9%B4%E6%88%B0%E7%88%AD</t>
+  </si>
+  <si>
+    <t>七年战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%B3%95%E8%98%AD%E8%A5%BF</t>
+  </si>
+  <si>
+    <t>新法兰西</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
+  </si>
+  <si>
+    <t>加拿大</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AD%81%E5%8C%97%E5%85%8B</t>
+  </si>
+  <si>
+    <t>魁北克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BE%85%E9%87%8C%E9%81%94</t>
+  </si>
+  <si>
+    <t>佛罗里达</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>密西西比河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8E%9F%E4%BD%8F%E6%B0%91</t>
+  </si>
+  <si>
+    <t>美国原住民</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E8%A5%BF%E7%8E%8B%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>法兰西王国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%B8%8D%E5%88%97%E9%A1%9B%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>大不列颠岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%88%A9</t>
+  </si>
+  <si>
+    <t>权利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%8B%99</t>
+  </si>
+  <si>
+    <t>义务</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E9%9D%A9%E5%91%BD</t>
+  </si>
+  <si>
+    <t>科学革命</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E6%92%AD</t>
+  </si>
+  <si>
+    <t>传播</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E5%85%8B</t>
+  </si>
+  <si>
+    <t>洛克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%BE%B7%E6%96%AF%E9%B3%A9</t>
+  </si>
+  <si>
+    <t>孟德斯鸠</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E7%A5%9E%E8%AB%96</t>
+  </si>
+  <si>
+    <t>自然神论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%95%99%E5%88%86%E9%9B%A2</t>
+  </si>
+  <si>
+    <t>政教分离</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1</t>
+  </si>
+  <si>
+    <t>自由</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B8%E4%BF%A1%E6%9C%83</t>
+  </si>
+  <si>
+    <t>浸信会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%B8%89%E4%B8%96</t>
+  </si>
+  <si>
+    <t>乔治三世</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E6%B5%B7%E6%B3%95%E6%A1%88</t>
+  </si>
+  <si>
+    <t>航海法案</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Writ_of_Assistance</t>
+  </si>
+  <si>
+    <t>en-Writ of Assistance</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>麻萨诸塞州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%8B%E5%B8%AB</t>
+  </si>
+  <si>
+    <t>律师</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD%E5%AE%AA%E6%B3%95</t>
+  </si>
+  <si>
+    <t>英国宪法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E4%BA%9E%E7%95%B6%E6%96%AF</t>
+  </si>
+  <si>
+    <t>约翰·亚当斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E9%A6%96%E7%9B%B8</t>
+  </si>
+  <si>
+    <t>英国首相</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E8%91%9B%E8%98%AD%E7%B6%AD%E7%88%BE</t>
+  </si>
+  <si>
+    <t>乔治·葛兰维尔</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Sugar_Act</t>
+  </si>
+  <si>
+    <t>en-Sugar Act</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Currency_Act</t>
+  </si>
+  <si>
+    <t>en-Currency Act</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%9C%8B%E6%9C%83</t>
+  </si>
+  <si>
+    <t>英国国会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B2%92%E6%9C%89%E4%BB%A3%E8%A1%A8%E6%AC%8A%E4%B8%8D%E8%83%BD%E5%BE%B5%E7%A8%85</t>
+  </si>
+  <si>
+    <t>没有代表权不能征税</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Stamp_Act</t>
+  </si>
+  <si>
+    <t>en-Stamp Act</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E8%8A%B1%E7%A8%85</t>
+  </si>
+  <si>
+    <t>印花税</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E4%B9%8B%E5%AD%90</t>
+  </si>
+  <si>
+    <t>自由之子</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%A3%E4%BC%A0</t>
+  </si>
+  <si>
+    <t>宣传</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Declaratory_Act</t>
+  </si>
+  <si>
+    <t>en-Declaratory Act</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Townshend_Acts</t>
+  </si>
+  <si>
+    <t>en-Townshend Acts</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E7%92%83</t>
+  </si>
+  <si>
+    <t>玻璃</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B2%B9%E6%BC%86</t>
+  </si>
+  <si>
+    <t>油漆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%89%9B</t>
+  </si>
+  <si>
+    <t>铅</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%99</t>
+  </si>
+  <si>
+    <t>纸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8C%B6%E8%91%89</t>
+  </si>
+  <si>
+    <t>茶叶</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A1%BF%E8%8C%B6%E5%8F%B6%E4%BA%8B%E4%BB%B6</t>
+  </si>
+  <si>
+    <t>波士顿茶叶事件</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E6%BC%A2%E8%80%83%E5%85%8B</t>
+  </si>
+  <si>
+    <t>约翰·汉考克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B5%B0%E7%A7%81</t>
+  </si>
+  <si>
+    <t>走私</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93</t>
+  </si>
+  <si>
+    <t>波士顿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E9%97%9C</t>
+  </si>
+  <si>
+    <t>海关</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E6%95%A6</t>
+  </si>
+  <si>
+    <t>伦敦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9A%B4%E5%8B%95</t>
+  </si>
+  <si>
+    <t>暴动</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A1%BF%E5%B1%A0%E6%9D%80</t>
+  </si>
+  <si>
+    <t>波士顿屠杀</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%BC%AA%E5%B0%94%C2%B7%E4%BA%9A%E5%BD%93%E6%96%AF</t>
+  </si>
+  <si>
+    <t>塞缪尔·亚当斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E5%A1%9E%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>麻塞诸塞州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%AD%B7%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>美国历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95</t>
+  </si>
+  <si>
+    <t>美国宪法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9B%BD%E7%B4%A2%E5%BC%95</t>
+  </si>
+  <si>
+    <t>Template talk-美国索引</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2%E5%B9%B4%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国历史年表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%93%A5%E5%80%AB%E5%B8%83%E6%99%82%E6%9C%9F</t>
+  </si>
+  <si>
+    <t>前哥伦布时期</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E6%AE%96%E6%B0%91%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>十三殖民地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8B%AC%E7%AB%8B%E5%AE%A3%E8%A8%80</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E4%B8%AA%E6%AE%96%E6%B0%91%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>十三个殖民地</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_美国革命</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%8D%B0%E6%88%B0%E7%88%AD</t>
-  </si>
-  <si>
-    <t>法印戰爭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
-  </si>
-  <si>
-    <t>西班牙</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%8D%81%E4%B8%89%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>北美十三州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%B1%E5%B8%9D%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>大英帝國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%A0%85%E5%90%88%E7%9C%BE%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>美利堅合眾國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%8D%A8%E7%AB%8B%E6%88%B0%E7%88%AD</t>
-  </si>
-  <si>
-    <t>美國獨立戰爭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%88%B6%E5%AE%AA%E4%BC%9A%E8%AE%AE</t>
-  </si>
-  <si>
-    <t>美国制宪会议</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>自由主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%95%9F%E8%92%99%E9%81%8B%E5%8B%95</t>
-  </si>
-  <si>
-    <t>啟蒙運動</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E6%94%B9%E9%9D%A9%E9%81%8B%E5%8B%95</t>
-  </si>
-  <si>
-    <t>宗教改革運動</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>共和主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>聯邦主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E9%BA%A5%E8%BF%AA%E9%81%9C</t>
-  </si>
-  <si>
-    <t>詹姆斯·麥迪遜</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/1812%E5%B9%B4%E6%88%B0%E7%88%AD</t>
-  </si>
-  <si>
-    <t>1812年戰爭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E5%A4%A7%E9%9D%A9%E5%91%BD</t>
-  </si>
-  <si>
-    <t>法國大革命</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E7%BE%8E%E6%B4%B2%E7%8B%AC%E7%AB%8B%E6%88%98%E4%BA%89</t>
-  </si>
-  <si>
-    <t>拉丁美洲独立战争</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%9A%86%E7%94%9F%E8%80%8C%E5%B9%B3%E7%AD%89</t>
-  </si>
-  <si>
-    <t>人皆生而平等</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E6%AC%8A%E5%88%A9</t>
-  </si>
-  <si>
-    <t>自然權利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%B4%E9%9A%B8%E5%88%B6</t>
-  </si>
-  <si>
-    <t>奴隸制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%8D%E6%97%8F%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>美国种族主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%8D%A8%E7%AB%8B%E5%AE%A3%E8%A8%80</t>
-  </si>
-  <si>
-    <t>美國獨立宣言</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>北美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%83%E5%B9%B4%E6%88%B0%E7%88%AD</t>
-  </si>
-  <si>
-    <t>七年戰爭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%B3%95%E8%98%AD%E8%A5%BF</t>
-  </si>
-  <si>
-    <t>新法蘭西</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
-  </si>
-  <si>
-    <t>加拿大</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AD%81%E5%8C%97%E5%85%8B</t>
-  </si>
-  <si>
-    <t>魁北克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BE%85%E9%87%8C%E9%81%94</t>
-  </si>
-  <si>
-    <t>佛羅里達</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>密西西比河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8E%9F%E4%BD%8F%E6%B0%91</t>
-  </si>
-  <si>
-    <t>美國原住民</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E8%A5%BF%E7%8E%8B%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>法蘭西王國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%B8%8D%E5%88%97%E9%A1%9B%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>大不列顛島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%88%A9</t>
-  </si>
-  <si>
-    <t>權利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%8B%99</t>
-  </si>
-  <si>
-    <t>義務</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E9%9D%A9%E5%91%BD</t>
-  </si>
-  <si>
-    <t>科學革命</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E6%92%AD</t>
-  </si>
-  <si>
-    <t>傳播</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E5%85%8B</t>
-  </si>
-  <si>
-    <t>洛克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%BE%B7%E6%96%AF%E9%B3%A9</t>
-  </si>
-  <si>
-    <t>孟德斯鳩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E7%A5%9E%E8%AB%96</t>
-  </si>
-  <si>
-    <t>自然神論</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%95%99%E5%88%86%E9%9B%A2</t>
-  </si>
-  <si>
-    <t>政教分離</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1</t>
-  </si>
-  <si>
-    <t>自由</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%B8%E4%BF%A1%E6%9C%83</t>
-  </si>
-  <si>
-    <t>浸信會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%B8%89%E4%B8%96</t>
-  </si>
-  <si>
-    <t>喬治三世</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E6%B5%B7%E6%B3%95%E6%A1%88</t>
-  </si>
-  <si>
-    <t>航海法案</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Writ_of_Assistance</t>
-  </si>
-  <si>
-    <t>en-Writ of Assistance</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>麻薩諸塞州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%8B%E5%B8%AB</t>
-  </si>
-  <si>
-    <t>律師</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD%E5%AE%AA%E6%B3%95</t>
-  </si>
-  <si>
-    <t>英国宪法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E4%BA%9E%E7%95%B6%E6%96%AF</t>
-  </si>
-  <si>
-    <t>約翰·亞當斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E9%A6%96%E7%9B%B8</t>
-  </si>
-  <si>
-    <t>英國首相</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E8%91%9B%E8%98%AD%E7%B6%AD%E7%88%BE</t>
-  </si>
-  <si>
-    <t>喬治·葛蘭維爾</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Sugar_Act</t>
-  </si>
-  <si>
-    <t>en-Sugar Act</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Currency_Act</t>
-  </si>
-  <si>
-    <t>en-Currency Act</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%9C%8B%E6%9C%83</t>
-  </si>
-  <si>
-    <t>英國國會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B2%92%E6%9C%89%E4%BB%A3%E8%A1%A8%E6%AC%8A%E4%B8%8D%E8%83%BD%E5%BE%B5%E7%A8%85</t>
-  </si>
-  <si>
-    <t>沒有代表權不能徵稅</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Stamp_Act</t>
-  </si>
-  <si>
-    <t>en-Stamp Act</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E8%8A%B1%E7%A8%85</t>
-  </si>
-  <si>
-    <t>印花稅</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E4%B9%8B%E5%AD%90</t>
-  </si>
-  <si>
-    <t>自由之子</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%A3%E4%BC%A0</t>
-  </si>
-  <si>
-    <t>宣传</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Declaratory_Act</t>
-  </si>
-  <si>
-    <t>en-Declaratory Act</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Townshend_Acts</t>
-  </si>
-  <si>
-    <t>en-Townshend Acts</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E7%92%83</t>
-  </si>
-  <si>
-    <t>玻璃</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B2%B9%E6%BC%86</t>
-  </si>
-  <si>
-    <t>油漆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%89%9B</t>
-  </si>
-  <si>
-    <t>鉛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%99</t>
-  </si>
-  <si>
-    <t>紙</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8C%B6%E8%91%89</t>
-  </si>
-  <si>
-    <t>茶葉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A1%BF%E8%8C%B6%E5%8F%B6%E4%BA%8B%E4%BB%B6</t>
-  </si>
-  <si>
-    <t>波士顿茶叶事件</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E6%BC%A2%E8%80%83%E5%85%8B</t>
-  </si>
-  <si>
-    <t>約翰·漢考克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B5%B0%E7%A7%81</t>
-  </si>
-  <si>
-    <t>走私</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93</t>
-  </si>
-  <si>
-    <t>波士頓</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E9%97%9C</t>
-  </si>
-  <si>
-    <t>海關</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E6%95%A6</t>
-  </si>
-  <si>
-    <t>倫敦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9A%B4%E5%8B%95</t>
-  </si>
-  <si>
-    <t>暴動</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A1%BF%E5%B1%A0%E6%9D%80</t>
-  </si>
-  <si>
-    <t>波士顿屠杀</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%BC%AA%E5%B0%94%C2%B7%E4%BA%9A%E5%BD%93%E6%96%AF</t>
-  </si>
-  <si>
-    <t>塞缪尔·亚当斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E5%A1%9E%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>麻塞諸塞州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%AD%B7%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>美國歷史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95</t>
-  </si>
-  <si>
-    <t>美國憲法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9B%BD%E7%B4%A2%E5%BC%95</t>
-  </si>
-  <si>
-    <t>Template talk-美国索引</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>美国历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2%E5%B9%B4%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国历史年表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%93%A5%E5%80%AB%E5%B8%83%E6%99%82%E6%9C%9F</t>
-  </si>
-  <si>
-    <t>前哥倫布時期</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E6%AE%96%E6%B0%91%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>十三殖民地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8B%AC%E7%AB%8B%E5%AE%A3%E8%A8%80</t>
-  </si>
-  <si>
-    <t>美国独立宣言</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A0%98%E5%9C%9F%E8%AE%8A%E9%81%B7</t>
   </si>
   <si>
-    <t>美國領土變遷</t>
+    <t>美国领土变迁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%88%98</t>
@@ -581,7 +578,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E7%81%A3%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>波斯灣戰爭</t>
+    <t>波斯湾战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%81%90%E6%88%98%E4%BA%89</t>
@@ -593,7 +590,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%B5%B7%E5%98%AF</t>
   </si>
   <si>
-    <t>金融海嘯</t>
+    <t>金融海啸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3</t>
@@ -623,7 +620,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E6%94%BF%E7%BD%B2</t>
   </si>
   <si>
-    <t>美國郵政署</t>
+    <t>美国邮政署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%91%E5%AD%A6%E6%8A%80%E6%9C%AF</t>
@@ -647,9 +644,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95</t>
   </si>
   <si>
-    <t>美国宪法</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9D%83%E5%88%A9%E6%B3%95%E6%A1%88</t>
   </si>
   <si>
@@ -659,7 +653,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
-    <t>權力分立</t>
+    <t>权力分立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
@@ -695,7 +689,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國聯邦機構列表</t>
+    <t>美国联邦机构列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
@@ -725,7 +719,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C%E7%8D%A8%E7%AB%8B%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>美國政府獨立機構</t>
+    <t>美国政府独立机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
@@ -767,13 +761,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%83%85%E5%A0%B1%E9%AB%94%E7%B3%BB</t>
   </si>
   <si>
-    <t>美國情報體系</t>
+    <t>美国情报体系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%83%85%E5%A0%B1%E7%B8%BD%E7%9B%A3</t>
   </si>
   <si>
-    <t>國家情報總監</t>
+    <t>国家情报总监</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E6%8A%A5%E5%B1%80</t>
@@ -785,13 +779,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>國防情報局</t>
+    <t>国防情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E7%A9%BA%E9%96%93%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>美國國家地理空間情報局</t>
+    <t>美国国家地理空间情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E4%BE%A6%E5%AF%9F%E5%B1%80</t>
@@ -839,7 +833,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%B0%91%E8%AD%A6%E8%A1%9B%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國國民警衛隊</t>
+    <t>美国国民警卫队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E6%B2%BB</t>
@@ -851,7 +845,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>美國選舉</t>
+    <t>美国选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%80%89%E4%B8%BE%E4%BA%BA%E5%9B%A2</t>
@@ -893,7 +887,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC51%E5%B7%9E</t>
   </si>
   <si>
-    <t>美國第51州</t>
+    <t>美国第51州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Political_status_of_Puerto_Rico</t>
@@ -905,7 +899,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%B7%9E%E8%88%87%E8%97%8D%E5%B7%9E</t>
   </si>
   <si>
-    <t>紅州與藍州</t>
+    <t>红州与蓝州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Purple_America</t>
@@ -941,7 +935,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%A3%AF%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>洛磯山脈</t>
+    <t>洛矶山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%88%97%E8%A1%A8</t>
@@ -953,13 +947,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>美國地區</t>
+    <t>美国地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>新英格蘭</t>
+    <t>新英格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%9C%B0%E5%8C%BA</t>
@@ -971,13 +965,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國南部</t>
+    <t>美国南部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E8%A5%BF%E9%83%A8</t>
   </si>
   <si>
-    <t>美國中西部</t>
+    <t>美国中西部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%A4%A7%E5%B9%B3%E5%8E%9F</t>
@@ -989,13 +983,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8C%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國西北部</t>
+    <t>美国西北部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8D%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國西南部</t>
+    <t>美国西南部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
@@ -1037,7 +1031,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A2</t>
   </si>
   <si>
-    <t>美國夢</t>
+    <t>美国梦</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_States_federal_budget</t>
@@ -1049,13 +1043,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%84%B2%E5%82%99%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>聯邦儲備系統</t>
+    <t>联邦储备系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9A%84%E5%B7%A5%E6%9C%83</t>
   </si>
   <si>
-    <t>美國的工會</t>
+    <t>美国的工会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Social_programs_in_the_United_States</t>
@@ -1067,7 +1061,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%82%B5</t>
   </si>
   <si>
-    <t>美國國債</t>
+    <t>美国国债</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Taxation_in_the_United_States</t>
@@ -1079,7 +1073,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
   </si>
   <si>
-    <t>美國交通</t>
+    <t>美国交通</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%BA%E5%9C%BA%E5%88%97%E8%A1%A8</t>
@@ -1091,13 +1085,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%81%93</t>
   </si>
   <si>
-    <t>美國國道</t>
+    <t>美国国道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>州際公路系統</t>
+    <t>州际公路系统</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Unemployment_in_the_United_States</t>
@@ -1121,7 +1115,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>美國社會</t>
+    <t>美国社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8A%AF%E7%BD%AA</t>
@@ -1193,15 +1187,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E9%9A%8E%E5%B1%A4</t>
   </si>
   <si>
-    <t>美國社會階層</t>
+    <t>美国社会阶层</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%A2%A6</t>
   </si>
   <si>
-    <t>美国梦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BD%93%E8%82%B2</t>
   </si>
   <si>
@@ -1211,7 +1202,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8BLGBT%E6%AC%8A%E7%9B%8A</t>
   </si>
   <si>
-    <t>美國LGBT權益</t>
+    <t>美国LGBT权益</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
@@ -1265,7 +1256,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A3%B2%E9%A3%9F%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>美國飲食文化</t>
+    <t>美国饮食文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E6%97%97</t>
@@ -1301,7 +1292,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>美國電視</t>
+    <t>美国电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%94%B5%E5%BD%B1</t>
@@ -1319,7 +1310,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E8%B1%A1%E8%A1%A8%E7%8F%BE%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>抽象表現主義</t>
+    <t>抽象表现主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A4%BE%E4%BC%9A%E9%97%AE%E9%A2%98</t>
@@ -1355,19 +1346,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%94%AF%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>美國槍支政治</t>
+    <t>美国枪支政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%9E%9D%E6%9A%B4%E5%8A%9B%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>美國槍枝暴力問題</t>
+    <t>美国枪枝暴力问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%86%AB%E7%99%82%E6%94%B9%E9%9D%A9</t>
   </si>
   <si>
-    <t>美國醫療改革</t>
+    <t>美国医疗改革</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%9D%83</t>
@@ -1379,7 +1370,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E9%82%8A%E7%95%8C</t>
   </si>
   <si>
-    <t>美墨邊界</t>
+    <t>美墨边界</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%82%A5%E8%83%96%E9%97%AE%E9%A2%98</t>
@@ -1391,22 +1382,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
   </si>
   <si>
     <t>整合规范文档</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9D%A9%E5%91%BD</t>
-  </si>
-  <si>
-    <t>浏览条目正文[c]</t>
-  </si>
-  <si>
-    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -1755,7 +1737,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I234"/>
+  <dimension ref="A1:I233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4126,7 +4108,7 @@
         <v>161</v>
       </c>
       <c r="F82" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G82" t="n">
         <v>5</v>
@@ -4152,10 +4134,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>162</v>
+      </c>
+      <c r="F83" t="s">
         <v>163</v>
-      </c>
-      <c r="F83" t="s">
-        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4181,10 +4163,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F84" t="s">
         <v>165</v>
-      </c>
-      <c r="F84" t="s">
-        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4210,10 +4192,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>166</v>
+      </c>
+      <c r="F85" t="s">
         <v>167</v>
-      </c>
-      <c r="F85" t="s">
-        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4239,10 +4221,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F86" t="s">
-        <v>170</v>
+        <v>46</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4268,10 +4250,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F87" t="s">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4297,10 +4279,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4326,10 +4308,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4355,10 +4337,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4384,10 +4366,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F91" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4413,10 +4395,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4442,10 +4424,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F93" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4471,10 +4453,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F94" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4500,10 +4482,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F95" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4529,10 +4511,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4558,10 +4540,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4587,13 +4569,13 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F98" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H98" t="s">
         <v>4</v>
@@ -4616,10 +4598,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F99" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -4645,13 +4627,13 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F100" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H100" t="s">
         <v>4</v>
@@ -4674,13 +4656,13 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G101" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H101" t="s">
         <v>4</v>
@@ -4703,13 +4685,13 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H102" t="s">
         <v>4</v>
@@ -4732,10 +4714,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4761,10 +4743,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4790,13 +4772,13 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H105" t="s">
         <v>4</v>
@@ -4819,13 +4801,13 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H106" t="s">
         <v>4</v>
@@ -4848,10 +4830,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F107" t="s">
-        <v>212</v>
+        <v>158</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4877,10 +4859,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4906,10 +4888,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F109" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4935,10 +4917,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4964,10 +4946,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4993,10 +4975,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F112" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5022,10 +5004,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F113" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5051,10 +5033,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F114" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5080,13 +5062,13 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F115" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G115" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H115" t="s">
         <v>4</v>
@@ -5109,13 +5091,13 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F116" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H116" t="s">
         <v>4</v>
@@ -5138,10 +5120,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F117" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5167,10 +5149,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F118" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5196,10 +5178,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F119" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5225,10 +5207,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F120" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5254,10 +5236,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F121" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5283,10 +5265,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F122" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5312,10 +5294,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F123" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5341,10 +5323,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F124" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5370,10 +5352,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F125" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5399,13 +5381,13 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F126" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G126" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H126" t="s">
         <v>4</v>
@@ -5428,13 +5410,13 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F127" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G127" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H127" t="s">
         <v>4</v>
@@ -5457,10 +5439,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F128" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5486,10 +5468,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F129" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5515,10 +5497,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F130" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5544,10 +5526,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F131" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5573,10 +5555,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F132" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5602,10 +5584,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F133" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5631,10 +5613,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F134" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5660,10 +5642,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F135" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5689,13 +5671,13 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F136" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H136" t="s">
         <v>4</v>
@@ -5718,13 +5700,13 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F137" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H137" t="s">
         <v>4</v>
@@ -5747,10 +5729,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F138" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5776,13 +5758,13 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F139" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G139" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H139" t="s">
         <v>4</v>
@@ -5805,13 +5787,13 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F140" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G140" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H140" t="s">
         <v>4</v>
@@ -5834,13 +5816,13 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F141" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H141" t="s">
         <v>4</v>
@@ -5863,10 +5845,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F142" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5892,10 +5874,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F143" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5921,10 +5903,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F144" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5950,10 +5932,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F145" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5979,10 +5961,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F146" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6008,10 +5990,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F147" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6037,10 +6019,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F148" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6066,10 +6048,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F149" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6095,10 +6077,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F150" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6124,10 +6106,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F151" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6153,13 +6135,13 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F152" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G152" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H152" t="s">
         <v>4</v>
@@ -6182,13 +6164,13 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F153" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G153" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H153" t="s">
         <v>4</v>
@@ -6211,10 +6193,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F154" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6240,10 +6222,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F155" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6269,10 +6251,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F156" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6298,13 +6280,13 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F157" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G157" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H157" t="s">
         <v>4</v>
@@ -6327,13 +6309,13 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F158" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G158" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H158" t="s">
         <v>4</v>
@@ -6356,10 +6338,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F159" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6385,10 +6367,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F160" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6414,10 +6396,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F161" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6443,10 +6425,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F162" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6472,10 +6454,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F163" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6501,10 +6483,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F164" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6530,10 +6512,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F165" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6559,10 +6541,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F166" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6588,10 +6570,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F167" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6617,10 +6599,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F168" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6646,13 +6628,13 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F169" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H169" t="s">
         <v>4</v>
@@ -6675,13 +6657,13 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F170" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H170" t="s">
         <v>4</v>
@@ -6704,10 +6686,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F171" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6733,10 +6715,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F172" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6762,10 +6744,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F173" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6791,10 +6773,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F174" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6820,10 +6802,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F175" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6849,10 +6831,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F176" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6878,10 +6860,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F177" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6907,10 +6889,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F178" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6936,10 +6918,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F179" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6965,10 +6947,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F180" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6994,10 +6976,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F181" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7023,10 +7005,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F182" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7052,10 +7034,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F183" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7081,10 +7063,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F184" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7110,13 +7092,13 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F185" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G185" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H185" t="s">
         <v>4</v>
@@ -7139,13 +7121,13 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F186" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G186" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H186" t="s">
         <v>4</v>
@@ -7168,13 +7150,13 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F187" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H187" t="s">
         <v>4</v>
@@ -7197,13 +7179,13 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F188" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G188" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H188" t="s">
         <v>4</v>
@@ -7226,10 +7208,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F189" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7255,13 +7237,13 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F190" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H190" t="s">
         <v>4</v>
@@ -7284,13 +7266,13 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F191" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H191" t="s">
         <v>4</v>
@@ -7313,10 +7295,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F192" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7342,13 +7324,13 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F193" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G193" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H193" t="s">
         <v>4</v>
@@ -7371,13 +7353,13 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F194" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G194" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H194" t="s">
         <v>4</v>
@@ -7400,13 +7382,13 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F195" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G195" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H195" t="s">
         <v>4</v>
@@ -7429,13 +7411,13 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F196" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G196" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H196" t="s">
         <v>4</v>
@@ -7458,13 +7440,13 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F197" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G197" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H197" t="s">
         <v>4</v>
@@ -7487,10 +7469,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F198" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7516,10 +7498,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F199" t="s">
-        <v>396</v>
+        <v>338</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7545,10 +7527,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F200" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7574,10 +7556,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="F201" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7603,10 +7585,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="F202" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7632,13 +7614,13 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="F203" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="G203" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H203" t="s">
         <v>4</v>
@@ -7661,13 +7643,13 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="F204" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="G204" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H204" t="s">
         <v>4</v>
@@ -7690,10 +7672,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="F205" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7719,10 +7701,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F206" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7748,10 +7730,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="F207" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7777,10 +7759,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="F208" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7806,10 +7788,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="F209" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7835,10 +7817,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="F210" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7864,13 +7846,13 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="F211" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="G211" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H211" t="s">
         <v>4</v>
@@ -7893,13 +7875,13 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F212" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="G212" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H212" t="s">
         <v>4</v>
@@ -7922,10 +7904,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F213" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -7951,10 +7933,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="F214" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -7980,10 +7962,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F215" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8009,10 +7991,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="F216" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8038,10 +8020,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="F217" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8067,10 +8049,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="F218" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8096,13 +8078,13 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F219" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="G219" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H219" t="s">
         <v>4</v>
@@ -8125,13 +8107,13 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F220" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G220" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H220" t="s">
         <v>4</v>
@@ -8154,10 +8136,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="F221" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8183,10 +8165,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="F222" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8212,10 +8194,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="F223" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8241,10 +8223,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="F224" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8270,10 +8252,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="F225" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8299,10 +8281,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="F226" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8328,13 +8310,13 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="F227" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="G227" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H227" t="s">
         <v>4</v>
@@ -8357,13 +8339,13 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="F228" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="G228" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H228" t="s">
         <v>4</v>
@@ -8386,10 +8368,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="F229" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8415,10 +8397,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>43</v>
+        <v>452</v>
       </c>
       <c r="F230" t="s">
-        <v>44</v>
+        <v>453</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8444,13 +8426,13 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>457</v>
+        <v>43</v>
       </c>
       <c r="F231" t="s">
-        <v>458</v>
+        <v>44</v>
       </c>
       <c r="G231" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H231" t="s">
         <v>4</v>
@@ -8473,13 +8455,13 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F232" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G232" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H232" t="s">
         <v>4</v>
@@ -8502,47 +8484,18 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="F233" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="G233" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H233" t="s">
         <v>4</v>
       </c>
       <c r="I233" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="s">
-        <v>0</v>
-      </c>
-      <c r="C234" t="s">
-        <v>1</v>
-      </c>
-      <c r="D234" t="n">
-        <v>233</v>
-      </c>
-      <c r="E234" t="s">
-        <v>461</v>
-      </c>
-      <c r="F234" t="s">
-        <v>463</v>
-      </c>
-      <c r="G234" t="n">
-        <v>1</v>
-      </c>
-      <c r="H234" t="s">
-        <v>4</v>
-      </c>
-      <c r="I234" t="n">
         <v>3</v>
       </c>
     </row>
